--- a/Test Cases _Static Resume Page.xlsx
+++ b/Test Cases _Static Resume Page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ee525ab81813bbf/Scandium/Software QA S'24 Cohort/Week 2/Resume Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79F51F9F-61DE-46DE-A4A9-2C2521DD2166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{79F51F9F-61DE-46DE-A4A9-2C2521DD2166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0A8C4AC-0793-4B22-85C7-6CF250B2C4C6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,11 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
   <si>
     <t>| **Test Case ID** | **Test Case**                               | **Pre-condition**               | **Test Steps**                                                                                                                                      | **Expected Result**                                                                                      | **Actual Result** | **Test Result** |</t>
   </si>
@@ -366,6 +365,18 @@
   </si>
   <si>
     <t>The printed version did not maintain proper formatting, though all content were be visible.</t>
+  </si>
+  <si>
+    <t>The correct favicon was displayed on the browser tab.</t>
+  </si>
+  <si>
+    <t>Hover effects worked correctly, providing visual feedback when interacting with link elements.</t>
+  </si>
+  <si>
+    <t>Text had sufficient contrast with the background for easy readability.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The page load within a reasonable time (e.g., 2-3 seconds), without performance lag.                </t>
   </si>
 </sst>
 </file>
@@ -508,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -538,7 +549,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -891,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777893B8-D1C0-2F43-84BA-7911CEA1CBD3}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1081,8 +1091,12 @@
       <c r="E8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
+      <c r="F8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -1190,8 +1204,12 @@
       <c r="E13" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
+      <c r="F13" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
@@ -1210,7 +1228,9 @@
         <v>87</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
@@ -1229,9 +1249,11 @@
         <v>91</v>
       </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G15" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>92</v>
       </c>
@@ -1247,8 +1269,12 @@
       <c r="E16" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
+      <c r="F16" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
@@ -1266,8 +1292,12 @@
       <c r="E17" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
+      <c r="F17" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G17">
